--- a/数据表/W-物品表.xlsx
+++ b/数据表/W-物品表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16815" windowHeight="12390"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="ItemConfig" sheetId="1" r:id="rId1"/>
@@ -181,10 +181,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -196,12 +196,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -210,7 +235,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,6 +288,22 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,36 +315,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -269,17 +323,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,52 +339,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -350,7 +350,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,55 +365,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,127 +533,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,6 +581,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -613,11 +616,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,16 +650,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,17 +670,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,10 +686,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,137 +698,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -842,18 +836,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1184,7 +1169,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C3" sqref="C3:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1211,407 +1196,407 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>1001</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>5</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>1002</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>10</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>1003</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>15</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>1004</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>20</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>1005</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>20</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>1006</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>2</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>40</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>1007</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>2</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>100</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>1008</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>2</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>150</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>1009</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>2</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>180</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>1010</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>3</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>0</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>1011</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>4</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="4">
         <v>0</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="7"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="7"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="7"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="7"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="7"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="7"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/数据表/W-物品表.xlsx
+++ b/数据表/W-物品表.xlsx
@@ -31,7 +31,10 @@
           <t>1:pp道具
 2:hp道具
 3:性格道具
-4:特性道具</t>
+4:特性道具
+5:等级道具
+6:学习力道具
+7:天赋道具</t>
         </r>
       </text>
     </comment>
@@ -66,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>物品ID</t>
   </si>
@@ -173,7 +176,49 @@
     <t>特性重置药剂</t>
   </si>
   <si>
-    <t>feture_active_chip</t>
+    <t>feture_random_drug</t>
+  </si>
+  <si>
+    <t>低级精灵升级药剂</t>
+  </si>
+  <si>
+    <t>lv_up1</t>
+  </si>
+  <si>
+    <t>初级精灵升级药剂</t>
+  </si>
+  <si>
+    <t>lv_up2</t>
+  </si>
+  <si>
+    <t>满级精灵装置</t>
+  </si>
+  <si>
+    <t>lv_up100</t>
+  </si>
+  <si>
+    <t>学习力养成装置</t>
+  </si>
+  <si>
+    <t>learn_up</t>
+  </si>
+  <si>
+    <t>学习力遗忘装置</t>
+  </si>
+  <si>
+    <t>learn_forget</t>
+  </si>
+  <si>
+    <t>天赋重置药剂</t>
+  </si>
+  <si>
+    <t>talent_random</t>
+  </si>
+  <si>
+    <t>天赋提升药剂</t>
+  </si>
+  <si>
+    <t>tanlent_up1</t>
   </si>
 </sst>
 </file>
@@ -181,10 +226,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -196,7 +241,112 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,87 +360,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -300,18 +369,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -323,22 +384,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -365,181 +410,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,8 +629,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,17 +650,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -627,6 +661,35 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,15 +709,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -669,15 +723,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -686,10 +731,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -698,7 +743,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -707,124 +752,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1169,7 +1214,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C13"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1439,59 +1484,129 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="A15" s="4">
+        <v>1012</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="4">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="A16" s="4">
+        <v>1013</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="4">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2</v>
+      </c>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="A17" s="4">
+        <v>1014</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="4">
+        <v>5</v>
+      </c>
+      <c r="E17" s="4">
+        <v>100</v>
+      </c>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="A18" s="4">
+        <v>1015</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="4">
+        <v>6</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="A19" s="4">
+        <v>1016</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="4">
+        <v>6</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="A20" s="4">
+        <v>1017</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="4">
+        <v>7</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="A21" s="4">
+        <v>1018</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="4">
+        <v>7</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6">

--- a/数据表/W-物品表.xlsx
+++ b/数据表/W-物品表.xlsx
@@ -218,7 +218,7 @@
     <t>天赋提升药剂</t>
   </si>
   <si>
-    <t>tanlent_up1</t>
+    <t>talent_up1</t>
   </si>
 </sst>
 </file>
@@ -226,8 +226,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -241,7 +241,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,14 +271,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,9 +284,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,98 +384,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -410,25 +410,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,151 +554,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,11 +626,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,26 +674,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,21 +710,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -731,10 +731,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,133 +743,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1214,7 +1214,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/数据表/W-物品表.xlsx
+++ b/数据表/W-物品表.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>物品ID</t>
   </si>
@@ -119,106 +119,160 @@
     <t>drug_pp5</t>
   </si>
   <si>
+    <t>恢复5点pp值</t>
+  </si>
+  <si>
     <t>中级PP道具</t>
   </si>
   <si>
     <t>drug_pp10</t>
   </si>
   <si>
+    <t>恢复10点pp值</t>
+  </si>
+  <si>
     <t>高级PP道具</t>
   </si>
   <si>
     <t>drug_pp15</t>
   </si>
   <si>
+    <t>恢复15点pp值</t>
+  </si>
+  <si>
     <t>特级PP道具</t>
   </si>
   <si>
     <t>drug_pp20</t>
   </si>
   <si>
+    <t>恢复20点pp值</t>
+  </si>
+  <si>
     <t>低级HP道具</t>
   </si>
   <si>
     <t>drug_hp20</t>
   </si>
   <si>
+    <t>恢复20点hp值</t>
+  </si>
+  <si>
     <t>初级HP道具</t>
   </si>
   <si>
     <t>drug_hp40</t>
   </si>
   <si>
+    <t>恢复40点hp值</t>
+  </si>
+  <si>
     <t>中级HP道具</t>
   </si>
   <si>
     <t>drug_hp100</t>
   </si>
   <si>
+    <t>恢复100点hp值</t>
+  </si>
+  <si>
     <t>高级HP道具</t>
   </si>
   <si>
     <t>drug_hp150</t>
   </si>
   <si>
+    <t>恢复150点hp值</t>
+  </si>
+  <si>
     <t>特级HP道具</t>
   </si>
   <si>
     <t>drug_hp180</t>
   </si>
   <si>
+    <t>恢复180点hp值</t>
+  </si>
+  <si>
     <t>性格重置药剂</t>
   </si>
   <si>
     <t>character_drug</t>
   </si>
   <si>
+    <t>重置精灵性格</t>
+  </si>
+  <si>
     <t>特性重置药剂</t>
   </si>
   <si>
     <t>feture_random_drug</t>
   </si>
   <si>
+    <t>重置精灵特性</t>
+  </si>
+  <si>
     <t>低级精灵升级药剂</t>
   </si>
   <si>
     <t>lv_up1</t>
   </si>
   <si>
+    <t>精灵等级提升1级</t>
+  </si>
+  <si>
     <t>初级精灵升级药剂</t>
   </si>
   <si>
     <t>lv_up2</t>
   </si>
   <si>
+    <t>精灵等级提升2级</t>
+  </si>
+  <si>
     <t>满级精灵装置</t>
   </si>
   <si>
     <t>lv_up100</t>
   </si>
   <si>
+    <t>精灵等级提升至满级</t>
+  </si>
+  <si>
     <t>学习力养成装置</t>
   </si>
   <si>
     <t>learn_up</t>
   </si>
   <si>
+    <t>提升精灵学习力</t>
+  </si>
+  <si>
     <t>学习力遗忘装置</t>
   </si>
   <si>
     <t>learn_forget</t>
   </si>
   <si>
+    <t>遗忘所有学习力</t>
+  </si>
+  <si>
     <t>天赋重置药剂</t>
   </si>
   <si>
     <t>talent_random</t>
   </si>
   <si>
+    <t>重置精灵天赋</t>
+  </si>
+  <si>
     <t>天赋提升药剂</t>
   </si>
   <si>
     <t>talent_up1</t>
+  </si>
+  <si>
+    <t>提升精灵1点天赋</t>
   </si>
 </sst>
 </file>
@@ -248,7 +302,129 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,128 +438,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -410,12 +464,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -428,25 +626,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,133 +638,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,35 +680,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,21 +710,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -700,11 +721,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,6 +742,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -731,10 +785,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,10 +797,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -755,121 +809,121 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1214,7 +1268,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1301,17 +1355,19 @@
       <c r="E4" s="4">
         <v>5</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4">
         <v>1002</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -1319,17 +1375,19 @@
       <c r="E5" s="4">
         <v>10</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4">
         <v>1003</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -1337,17 +1395,19 @@
       <c r="E6" s="4">
         <v>15</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4">
         <v>1004</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -1355,17 +1415,19 @@
       <c r="E7" s="4">
         <v>20</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4">
         <v>1005</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
@@ -1373,17 +1435,19 @@
       <c r="E8" s="4">
         <v>20</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4">
         <v>1006</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
@@ -1391,17 +1455,19 @@
       <c r="E9" s="4">
         <v>40</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4">
         <v>1007</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
@@ -1409,17 +1475,19 @@
       <c r="E10" s="4">
         <v>100</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4">
         <v>1008</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D11" s="4">
         <v>2</v>
@@ -1427,17 +1495,19 @@
       <c r="E11" s="4">
         <v>150</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4">
         <v>1009</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D12" s="4">
         <v>2</v>
@@ -1445,17 +1515,19 @@
       <c r="E12" s="4">
         <v>180</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4">
         <v>1010</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D13" s="4">
         <v>3</v>
@@ -1463,17 +1535,19 @@
       <c r="E13" s="4">
         <v>0</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4">
         <v>1011</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D14" s="4">
         <v>4</v>
@@ -1481,17 +1555,19 @@
       <c r="E14" s="4">
         <v>0</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4">
         <v>1012</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D15" s="4">
         <v>5</v>
@@ -1499,17 +1575,19 @@
       <c r="E15" s="4">
         <v>1</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4">
         <v>1013</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D16" s="4">
         <v>5</v>
@@ -1517,17 +1595,19 @@
       <c r="E16" s="4">
         <v>2</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4">
         <v>1014</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D17" s="4">
         <v>5</v>
@@ -1535,17 +1615,19 @@
       <c r="E17" s="4">
         <v>100</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4">
         <v>1015</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D18" s="4">
         <v>6</v>
@@ -1553,17 +1635,19 @@
       <c r="E18" s="4">
         <v>0</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4">
         <v>1016</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D19" s="4">
         <v>6</v>
@@ -1571,17 +1655,19 @@
       <c r="E19" s="4">
         <v>0</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="4">
         <v>1017</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D20" s="4">
         <v>7</v>
@@ -1589,17 +1675,19 @@
       <c r="E20" s="4">
         <v>0</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="4">
         <v>1018</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D21" s="4">
         <v>7</v>
@@ -1607,7 +1695,9 @@
       <c r="E21" s="4">
         <v>1</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="4"/>
